--- a/assets/info/plantilla-reportes-plenarias.xlsx
+++ b/assets/info/plantilla-reportes-plenarias.xlsx
@@ -22,27 +22,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">REPORTE AGENDA LEGISLATIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA REGISTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA PLENARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSTANCIA DE SEGUIMIENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUNICIPIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUNTOS DE LA AGENDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUMPLIMIENTO DE LA AGENDA [%]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCRIPCION DEL ASUNTO QUE SE DEJO SIN TRATAMIENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUNTOS VARIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMERO Y NOMBRE DE LA NORMA QUE INGRESO SIN ESTAR EN AGENDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPO DE PLENARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBSERVACIONES</t>
+  </si>
   <si>
     <t xml:space="preserve">REPORTES NOTICIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHA REGISTRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHA PLENARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSTANCIA DE SEGUIMIENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEPARTAMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUNICIPIO</t>
   </si>
   <si>
     <t xml:space="preserve">FECHA NOTICIA</t>
@@ -335,13 +359,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>66600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>987120</xdr:colOff>
+      <xdr:colOff>986400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:rowOff>47160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -354,8 +378,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="66600" y="314280"/>
-          <a:ext cx="3590640" cy="1123560"/>
+          <a:off x="66600" y="314640"/>
+          <a:ext cx="3589920" cy="1122840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -381,9 +405,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>920520</xdr:colOff>
+      <xdr:colOff>919800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>180720</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -397,7 +421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="66600" y="313920"/>
-          <a:ext cx="3524040" cy="1257120"/>
+          <a:ext cx="3523320" cy="1256400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -423,9 +447,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>729720</xdr:colOff>
+      <xdr:colOff>729000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>228240</xdr:rowOff>
+      <xdr:rowOff>227520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -439,7 +463,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="66600" y="313920"/>
-          <a:ext cx="3333240" cy="1304640"/>
+          <a:ext cx="3332520" cy="1303920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -462,7 +486,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -474,7 +498,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="59.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="43.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="44.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="32.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="37.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="34.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="28.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="29.57"/>
@@ -533,13 +557,27 @@
       <c r="F5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="G5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
     </row>
@@ -611,7 +649,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -646,22 +684,22 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -739,7 +777,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -774,25 +812,25 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>

--- a/assets/info/plantilla-reportes-plenarias.xlsx
+++ b/assets/info/plantilla-reportes-plenarias.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t xml:space="preserve">REPORTE AGENDA LEGISLATIVA</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t xml:space="preserve">OBSERVACIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONITOR</t>
   </si>
   <si>
     <t xml:space="preserve">REPORTES NOTICIAS</t>
@@ -363,9 +366,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>986400</xdr:colOff>
+      <xdr:colOff>986040</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -379,7 +382,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="66600" y="314640"/>
-          <a:ext cx="3589920" cy="1122840"/>
+          <a:ext cx="3589560" cy="1122480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -405,9 +408,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>919800</xdr:colOff>
+      <xdr:colOff>919440</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -421,7 +424,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="66600" y="313920"/>
-          <a:ext cx="3523320" cy="1256400"/>
+          <a:ext cx="3522960" cy="1256040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -447,9 +450,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>729000</xdr:colOff>
+      <xdr:colOff>728640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>227520</xdr:rowOff>
+      <xdr:rowOff>227160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -463,7 +466,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="66600" y="313920"/>
-          <a:ext cx="3332520" cy="1303920"/>
+          <a:ext cx="3332160" cy="1303560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -485,8 +488,8 @@
   </sheetPr>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -578,7 +581,9 @@
       <c r="M5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="O5" s="10"/>
     </row>
   </sheetData>
@@ -649,7 +654,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -684,22 +689,22 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -777,7 +782,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -812,25 +817,25 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
